--- a/res/testcase/PakringOperation/MonthTicketManage/monthTicketManager.xlsx
+++ b/res/testcase/PakringOperation/MonthTicketManage/monthTicketManager.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="10365" tabRatio="988" firstSheet="7" activeTab="8"/>
+    <workbookView windowWidth="21600" windowHeight="10365" tabRatio="988" firstSheet="12" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="209">
   <si>
     <t>动作</t>
   </si>
@@ -630,6 +630,9 @@
   </si>
   <si>
     <t>MonthTicketTypePage.关闭-提示</t>
+  </si>
+  <si>
+    <t>暂停2秒</t>
   </si>
   <si>
     <t>云停车场</t>
@@ -664,10 +667,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -697,11 +700,26 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -712,8 +730,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -728,47 +770,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -781,6 +785,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -788,40 +800,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -835,7 +816,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -856,13 +859,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -874,85 +961,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -970,6 +979,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -982,25 +1009,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1013,12 +1022,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1065,47 +1068,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1130,15 +1092,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1154,11 +1107,61 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1170,10 +1173,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1182,133 +1185,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2613,10 +2616,10 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="B6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2711,51 +2714,48 @@
         <v>90</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>91</v>
+        <v>199</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>92</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="7" s="4" customFormat="1" ht="29" customHeight="1" spans="1:6">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" s="4" customFormat="1" ht="29" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>95</v>
+      <c r="B7" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="F7" s="7"/>
     </row>
     <row r="8" s="4" customFormat="1" ht="29" customHeight="1" spans="1:6">
       <c r="A8" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="F8" s="7"/>
     </row>
@@ -2764,15 +2764,17 @@
         <v>102</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E9" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="F9" s="7"/>
     </row>
     <row r="10" s="4" customFormat="1" ht="29" customHeight="1" spans="1:6">
@@ -2780,17 +2782,15 @@
         <v>105</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>106</v>
+        <v>174</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>201</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="F10" s="7"/>
     </row>
     <row r="11" s="4" customFormat="1" ht="29" customHeight="1" spans="1:6">
@@ -2816,15 +2816,17 @@
         <v>111</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E12" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>203</v>
+      </c>
       <c r="F12" s="7"/>
     </row>
     <row r="13" s="4" customFormat="1" ht="29" customHeight="1" spans="1:6">
@@ -2832,13 +2834,13 @@
         <v>114</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="7"/>
@@ -2848,17 +2850,15 @@
         <v>117</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>81</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E14" s="2"/>
       <c r="F14" s="7"/>
     </row>
     <row r="15" s="4" customFormat="1" ht="29" customHeight="1" spans="1:6">
@@ -2866,16 +2866,16 @@
         <v>120</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F15" s="7"/>
     </row>
@@ -2884,16 +2884,16 @@
         <v>123</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="F16" s="7"/>
     </row>
@@ -2901,35 +2901,35 @@
       <c r="A17" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>128</v>
+      <c r="B17" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" customFormat="1" ht="29" customHeight="1" spans="1:6">
+    <row r="18" s="4" customFormat="1" ht="29" customHeight="1" spans="1:6">
       <c r="A18" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="F18" s="7"/>
     </row>
@@ -2937,68 +2937,68 @@
       <c r="A19" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>135</v>
+      <c r="B19" s="9" t="s">
+        <v>131</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" s="4" customFormat="1" ht="29" customHeight="1" spans="1:6">
+    <row r="20" customFormat="1" ht="29" customHeight="1" spans="1:6">
       <c r="A20" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2" t="s">
-        <v>139</v>
+      <c r="B20" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" s="5" customFormat="1" ht="29" customHeight="1" spans="1:6">
+    <row r="21" s="4" customFormat="1" ht="29" customHeight="1" spans="1:6">
       <c r="A21" s="2" t="s">
         <v>140</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E21" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" s="4" customFormat="1" ht="29" customHeight="1" spans="1:6">
+    <row r="22" s="5" customFormat="1" ht="29" customHeight="1" spans="1:6">
       <c r="A22" s="2" t="s">
         <v>143</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>146</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="E22" s="2"/>
       <c r="F22" s="7"/>
     </row>
     <row r="23" s="4" customFormat="1" ht="29" customHeight="1" spans="1:6">
@@ -3006,29 +3006,47 @@
         <v>147</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" s="4" customFormat="1" ht="29" customHeight="1" spans="1:6">
+      <c r="A24" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2" t="s">
+      <c r="D24" s="2"/>
+      <c r="E24" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F23" s="7"/>
+      <c r="F24" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C38:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C39:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C7 C8 C9 C10 C13 C14 C15 C16 C2:C3 C11:C12 C17:C23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C7 C8 C9 C10 C11 C14 C15 C16 C17 C2:C3 C12:C13 C18:C24">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C24:C26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C25:C27">
       <formula1>Actions!$A$2:$A$35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27:C37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C28:C38">
       <formula1>Actions!$A$2:$A$30</formula1>
     </dataValidation>
   </dataValidations>
@@ -3132,7 +3150,7 @@
         <v>151</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -3406,7 +3424,7 @@
         <v>151</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" s="4" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3468,7 +3486,7 @@
         <v>96</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" s="4" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3643,7 +3661,7 @@
         <v>151</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" ht="24" customHeight="1" spans="1:5">
@@ -3773,10 +3791,10 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3871,51 +3889,48 @@
         <v>90</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>91</v>
+        <v>199</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>92</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="7" s="4" customFormat="1" ht="29" customHeight="1" spans="1:6">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" s="4" customFormat="1" ht="29" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>95</v>
+      <c r="B7" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="F7" s="7"/>
     </row>
     <row r="8" s="4" customFormat="1" ht="29" customHeight="1" spans="1:6">
       <c r="A8" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>101</v>
+        <v>206</v>
       </c>
       <c r="F8" s="7"/>
     </row>
@@ -3924,15 +3939,17 @@
         <v>102</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E9" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="F9" s="7"/>
     </row>
     <row r="10" s="4" customFormat="1" ht="29" customHeight="1" spans="1:6">
@@ -3940,17 +3957,15 @@
         <v>105</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>106</v>
+        <v>174</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>206</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="F10" s="7"/>
     </row>
     <row r="11" s="4" customFormat="1" ht="29" customHeight="1" spans="1:6">
@@ -3958,15 +3973,17 @@
         <v>109</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E11" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="F11" s="7"/>
     </row>
     <row r="12" s="4" customFormat="1" ht="29" customHeight="1" spans="1:6">
@@ -3974,13 +3991,13 @@
         <v>111</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="7"/>
@@ -3990,17 +4007,15 @@
         <v>114</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>81</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E13" s="2"/>
       <c r="F13" s="7"/>
     </row>
     <row r="14" s="4" customFormat="1" ht="29" customHeight="1" spans="1:6">
@@ -4008,16 +4023,16 @@
         <v>117</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F14" s="7"/>
     </row>
@@ -4026,16 +4041,16 @@
         <v>120</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="F15" s="7"/>
     </row>
@@ -4043,35 +4058,35 @@
       <c r="A16" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>128</v>
+      <c r="B16" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" customFormat="1" ht="29" customHeight="1" spans="1:6">
+    <row r="17" s="4" customFormat="1" ht="29" customHeight="1" spans="1:6">
       <c r="A17" s="2" t="s">
         <v>127</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="F17" s="7"/>
     </row>
@@ -4079,68 +4094,68 @@
       <c r="A18" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>135</v>
+      <c r="B18" s="9" t="s">
+        <v>131</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" s="4" customFormat="1" ht="29" customHeight="1" spans="1:6">
+    <row r="19" customFormat="1" ht="29" customHeight="1" spans="1:6">
       <c r="A19" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2" t="s">
-        <v>139</v>
+      <c r="B19" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" s="5" customFormat="1" ht="29" customHeight="1" spans="1:6">
+    <row r="20" s="4" customFormat="1" ht="29" customHeight="1" spans="1:6">
       <c r="A20" s="2" t="s">
         <v>138</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E20" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" s="4" customFormat="1" ht="29" customHeight="1" spans="1:6">
+    <row r="21" s="5" customFormat="1" ht="29" customHeight="1" spans="1:6">
       <c r="A21" s="2" t="s">
         <v>140</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>146</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="E21" s="2"/>
       <c r="F21" s="7"/>
     </row>
     <row r="22" s="4" customFormat="1" ht="29" customHeight="1" spans="1:6">
@@ -4148,29 +4163,47 @@
         <v>143</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" s="4" customFormat="1" ht="29" customHeight="1" spans="1:6">
+      <c r="A23" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2" t="s">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F22" s="7"/>
+      <c r="F23" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C37:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C38:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C2:C3 C16:C22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C2:C3 C17:C23">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C23:C25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C24:C26">
       <formula1>Actions!$A$2:$A$35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:C36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27:C37">
       <formula1>Actions!$A$2:$A$30</formula1>
     </dataValidation>
   </dataValidations>
@@ -4274,7 +4307,7 @@
         <v>151</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -4548,7 +4581,7 @@
         <v>151</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" s="4" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4610,7 +4643,7 @@
         <v>96</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" s="4" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4698,7 +4731,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -5206,7 +5239,7 @@
         <v>151</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" ht="24" customHeight="1" spans="1:5">
@@ -7000,7 +7033,7 @@
   <sheetPr/>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>

--- a/res/testcase/PakringOperation/MonthTicketManage/monthTicketManager.xlsx
+++ b/res/testcase/PakringOperation/MonthTicketManage/monthTicketManager.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="10365" tabRatio="988" firstSheet="12" activeTab="16"/>
+    <workbookView windowWidth="21600" windowHeight="9765" tabRatio="988" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -700,8 +700,37 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -709,7 +738,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -724,15 +753,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -748,21 +777,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -770,23 +785,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -800,14 +829,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -815,32 +836,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -859,7 +859,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -877,13 +931,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -895,85 +967,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -991,37 +991,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1040,6 +1034,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1068,26 +1068,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1107,17 +1122,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1132,39 +1165,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1173,10 +1173,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1185,133 +1185,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2177,7 +2177,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2618,8 +2618,8 @@
   <sheetPr/>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="B6:E6"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3793,8 +3793,8 @@
   <sheetPr/>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -4730,8 +4730,8 @@
   <sheetPr/>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -5372,7 +5372,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -5646,7 +5646,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -5884,7 +5884,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -6103,8 +6103,8 @@
   <sheetPr/>
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
